--- a/Assignment01/Wall Time Difference.xlsx
+++ b/Assignment01/Wall Time Difference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junguo/IdeaProjects/CS6650/Building-Scalable-Distributed-System/Assignment01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F7C94-2662-7545-AEBC-4A08391ECB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDBA8E-2DB8-934D-878C-FF3715191A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20640" xr2:uid="{69B5EEFF-EC90-9443-A8BD-01D557CF0E3F}"/>
   </bookViews>
@@ -2741,13 +2741,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>182515</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>179777</xdr:rowOff>
+      <xdr:rowOff>179776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609904</xdr:colOff>
+      <xdr:colOff>699640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>48366</xdr:rowOff>
+      <xdr:rowOff>114070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3113,7 +3113,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
